--- a/dev_includes/Test_Data/coursehistoryoffered.xlsx
+++ b/dev_includes/Test_Data/coursehistoryoffered.xlsx
@@ -8,16 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mihir\OneDrive\Desktop\Database_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E312E5B7-5ABD-4764-8241-06D1D9D8BAD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC88F136-ED30-4AF6-AB8A-D1FC3B2156C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{1F34C6CD-7DCD-44D3-B15C-457748AB5677}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1F34C6CD-7DCD-44D3-B15C-457748AB5677}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -28,58 +25,286 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
-  <si>
-    <t>Core</t>
-  </si>
-  <si>
-    <t>COM002</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="88">
   <si>
     <t>EC4060</t>
   </si>
   <si>
-    <t>Data structures and algorithm</t>
-  </si>
-  <si>
-    <t>CI3400</t>
-  </si>
-  <si>
-    <t>Steel</t>
-  </si>
-  <si>
-    <t>CIV001</t>
-  </si>
-  <si>
-    <t>CI4460</t>
-  </si>
-  <si>
-    <t>Concrete structures</t>
-  </si>
-  <si>
-    <t>CIV002</t>
-  </si>
-  <si>
-    <t>EC3060</t>
-  </si>
-  <si>
-    <t>EC2060</t>
-  </si>
-  <si>
-    <t>computing</t>
-  </si>
-  <si>
-    <t>programming</t>
+    <t>MC1010</t>
+  </si>
+  <si>
+    <t>Course_Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Credit </t>
+  </si>
+  <si>
+    <t>Core/Technical</t>
+  </si>
+  <si>
+    <t>Coord_ID</t>
+  </si>
+  <si>
+    <t>Offered_Semester</t>
+  </si>
+  <si>
+    <t>Offered_Department_ID</t>
+  </si>
+  <si>
+    <t>Academic_Year</t>
+  </si>
+  <si>
+    <t>Semester_Start_Date</t>
+  </si>
+  <si>
+    <t>Semester_End_Date</t>
+  </si>
+  <si>
+    <t>English Language Enhancement</t>
+  </si>
+  <si>
+    <t>core</t>
+  </si>
+  <si>
+    <t>IDS001</t>
+  </si>
+  <si>
+    <t>IDS</t>
+  </si>
+  <si>
+    <t>MC1020</t>
+  </si>
+  <si>
+    <t>Mathematics</t>
+  </si>
+  <si>
+    <t>ID1010</t>
+  </si>
+  <si>
+    <t>Engineering Drawing</t>
+  </si>
+  <si>
+    <t>EC1011</t>
+  </si>
+  <si>
+    <t>Computing</t>
+  </si>
+  <si>
+    <t>EC1020</t>
+  </si>
+  <si>
+    <t>Applied Electricity</t>
+  </si>
+  <si>
+    <t>ID1021</t>
+  </si>
+  <si>
+    <t>Engineering Metrology</t>
+  </si>
+  <si>
+    <t>ID2010</t>
+  </si>
+  <si>
+    <t>Environmental Pollution and Control</t>
+  </si>
+  <si>
+    <t>ID2020</t>
+  </si>
+  <si>
+    <t>Materials Science for Engineering</t>
+  </si>
+  <si>
+    <t>MC2020</t>
+  </si>
+  <si>
+    <t>Linear Algebra</t>
+  </si>
+  <si>
+    <t>EC2010</t>
+  </si>
+  <si>
+    <t>Computer Programming</t>
+  </si>
+  <si>
+    <t>CE2021</t>
+  </si>
+  <si>
+    <t>Engineering Mechanics</t>
+  </si>
+  <si>
+    <t>MP2010</t>
+  </si>
+  <si>
+    <t>Thermodynamics</t>
+  </si>
+  <si>
+    <t>MP3010</t>
+  </si>
+  <si>
+    <t>Kinematics and Dynamics</t>
+  </si>
+  <si>
+    <t>MC3010</t>
+  </si>
+  <si>
+    <t>Differential Equations and Numerical Methods</t>
+  </si>
+  <si>
+    <t>CE3010</t>
+  </si>
+  <si>
+    <t>Mechanics of Materials</t>
+  </si>
+  <si>
+    <t>ID3020</t>
+  </si>
+  <si>
+    <t>Design and Prototyping</t>
+  </si>
+  <si>
+    <t>EC3011</t>
+  </si>
+  <si>
+    <t>Introduction to Electronics and Instrumentation</t>
+  </si>
+  <si>
+    <t>MC3020</t>
+  </si>
+  <si>
+    <t>Probability and Statistics</t>
+  </si>
+  <si>
+    <t>EC4010</t>
+  </si>
+  <si>
+    <t>Digital Design</t>
+  </si>
+  <si>
+    <t>EC4040</t>
+  </si>
+  <si>
+    <t>Signals and Systems</t>
+  </si>
+  <si>
+    <t>EC4050</t>
+  </si>
+  <si>
+    <t>Electronics Circuits and Devices</t>
+  </si>
+  <si>
+    <t>Computer and Data Networks</t>
+  </si>
+  <si>
+    <t>EC4070</t>
+  </si>
+  <si>
+    <t>Data Structures and Algorithms</t>
+  </si>
+  <si>
+    <t>MC4010</t>
+  </si>
+  <si>
+    <t>Discrete Mathematics</t>
+  </si>
+  <si>
+    <t>EC5010</t>
+  </si>
+  <si>
+    <t>Digital Signal Processing</t>
+  </si>
+  <si>
+    <t>EC5020</t>
+  </si>
+  <si>
+    <t>Analogue and Communication</t>
+  </si>
+  <si>
+    <t>EC5030</t>
+  </si>
+  <si>
+    <t>Control Systems</t>
+  </si>
+  <si>
+    <t>EC5070</t>
+  </si>
+  <si>
+    <t>Database Systems</t>
+  </si>
+  <si>
+    <t>EC5080</t>
+  </si>
+  <si>
+    <t>Software construction</t>
+  </si>
+  <si>
+    <t>EC5110</t>
+  </si>
+  <si>
+    <t>Computer Architecture and Organization</t>
+  </si>
+  <si>
+    <t>MC5010</t>
+  </si>
+  <si>
+    <t>Industrial Training I</t>
+  </si>
+  <si>
+    <t>EC6020</t>
+  </si>
+  <si>
+    <t>Embedded Systems Design</t>
+  </si>
+  <si>
+    <t>EC6110</t>
+  </si>
+  <si>
+    <t>Operating Systems</t>
+  </si>
+  <si>
+    <t>EC6060</t>
+  </si>
+  <si>
+    <t>Software Engineering</t>
+  </si>
+  <si>
+    <t>EC6070</t>
+  </si>
+  <si>
+    <t>Computer Engineering Research Project I</t>
+  </si>
+  <si>
+    <t>EC6090</t>
+  </si>
+  <si>
+    <t>Robotics and Automation</t>
+  </si>
+  <si>
+    <t>COM</t>
+  </si>
+  <si>
+    <t>COM001</t>
+  </si>
+  <si>
+    <t>EC9630</t>
+  </si>
+  <si>
+    <t>Machine Learning</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -123,36 +348,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="6">
-          <cell r="B6">
-            <v>44413</v>
-          </cell>
-          <cell r="C6">
-            <v>44555</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="B7">
-            <v>44666</v>
-          </cell>
-          <cell r="C7">
-            <v>44844</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -452,189 +647,1240 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B7FABAF-87B2-4021-A11F-D3C1712A3CE7}">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="M38" sqref="M38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="15.88671875" customWidth="1"/>
+    <col min="1" max="1" width="12.77734375" customWidth="1"/>
+    <col min="2" max="2" width="41.109375" customWidth="1"/>
+    <col min="4" max="4" width="13.5546875" customWidth="1"/>
+    <col min="6" max="6" width="17.109375" customWidth="1"/>
+    <col min="7" max="7" width="20.6640625" customWidth="1"/>
     <col min="8" max="8" width="13.77734375" customWidth="1"/>
     <col min="9" max="9" width="16.44140625" customWidth="1"/>
     <col min="10" max="10" width="17.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>11</v>
-      </c>
       <c r="B1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
         <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1">
-        <v>2</v>
-      </c>
-      <c r="G1">
-        <v>1</v>
-      </c>
-      <c r="H1">
-        <v>2021</v>
-      </c>
-      <c r="I1" s="1">
-        <f>[1]Sheet1!B6</f>
-        <v>44413</v>
-      </c>
-      <c r="J1" s="1">
-        <f>[1]Sheet1!C6</f>
-        <v>44555</v>
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
         <v>13</v>
       </c>
-      <c r="C2">
-        <v>3</v>
-      </c>
-      <c r="D2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="F2">
         <v>1</v>
       </c>
-      <c r="F2">
-        <v>3</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
+      <c r="G2" t="s">
+        <v>14</v>
       </c>
       <c r="H2">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="I2" s="1">
-        <f t="shared" ref="I2:J2" si="0">I4</f>
-        <v>44666</v>
+        <v>43831</v>
       </c>
       <c r="J2" s="1">
-        <f t="shared" si="0"/>
-        <v>44844</v>
+        <v>43982</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C3">
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3">
         <v>1</v>
       </c>
-      <c r="F3">
-        <v>4</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
+      <c r="G3" t="s">
+        <v>14</v>
       </c>
       <c r="H3">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="I3" s="1">
-        <v>44876</v>
+        <v>43831</v>
       </c>
       <c r="J3" s="1">
-        <v>44650</v>
+        <v>43982</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="C4">
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="F4">
-        <v>3</v>
-      </c>
-      <c r="G4">
         <v>1</v>
       </c>
+      <c r="G4" t="s">
+        <v>14</v>
+      </c>
       <c r="H4">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="I4" s="1">
-        <f>[1]Sheet1!B7</f>
-        <v>44666</v>
+        <v>43831</v>
       </c>
       <c r="J4" s="1">
-        <f>[1]Sheet1!C7</f>
-        <v>44844</v>
+        <v>43982</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C5">
         <v>3</v>
       </c>
       <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5">
+        <v>2020</v>
+      </c>
+      <c r="I5" s="1">
+        <v>43831</v>
+      </c>
+      <c r="J5" s="1">
+        <v>43982</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6">
+        <v>2020</v>
+      </c>
+      <c r="I6" s="1">
+        <v>43831</v>
+      </c>
+      <c r="J6" s="1">
+        <v>43982</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7">
+        <v>2020</v>
+      </c>
+      <c r="I7" s="1">
+        <v>43831</v>
+      </c>
+      <c r="J7" s="1">
+        <v>43982</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8">
+        <v>2020</v>
+      </c>
+      <c r="I8" s="1">
+        <v>43983</v>
+      </c>
+      <c r="J8" s="1">
+        <v>44196</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9">
+        <v>2020</v>
+      </c>
+      <c r="I9" s="1">
+        <v>43983</v>
+      </c>
+      <c r="J9" s="1">
+        <v>44196</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10">
+        <v>2020</v>
+      </c>
+      <c r="I10" s="1">
+        <v>43983</v>
+      </c>
+      <c r="J10" s="1">
+        <v>44196</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11">
+        <v>2020</v>
+      </c>
+      <c r="I11" s="1">
+        <v>43983</v>
+      </c>
+      <c r="J11" s="1">
+        <v>44196</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12">
+        <v>2020</v>
+      </c>
+      <c r="I12" s="1">
+        <v>43983</v>
+      </c>
+      <c r="J12" s="1">
+        <v>44196</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+      <c r="D13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+      <c r="G13" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13">
+        <v>2020</v>
+      </c>
+      <c r="I13" s="1">
+        <v>43983</v>
+      </c>
+      <c r="J13" s="1">
+        <v>44196</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14">
+        <v>3</v>
+      </c>
+      <c r="D14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14">
+        <v>3</v>
+      </c>
+      <c r="G14" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14">
+        <v>2021</v>
+      </c>
+      <c r="I14" s="1">
+        <v>44197</v>
+      </c>
+      <c r="J14" s="1">
+        <v>44347</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
+      </c>
+      <c r="D15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15">
+        <v>3</v>
+      </c>
+      <c r="G15" t="s">
+        <v>14</v>
+      </c>
+      <c r="H15">
+        <v>2021</v>
+      </c>
+      <c r="I15" s="1">
+        <v>44197</v>
+      </c>
+      <c r="J15" s="1">
+        <v>44347</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16">
+        <v>3</v>
+      </c>
+      <c r="D16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16">
+        <v>3</v>
+      </c>
+      <c r="G16" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16">
+        <v>2021</v>
+      </c>
+      <c r="I16" s="1">
+        <v>44197</v>
+      </c>
+      <c r="J16" s="1">
+        <v>44347</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17">
+        <v>3</v>
+      </c>
+      <c r="D17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17">
+        <v>3</v>
+      </c>
+      <c r="G17" t="s">
+        <v>14</v>
+      </c>
+      <c r="H17">
+        <v>2021</v>
+      </c>
+      <c r="I17" s="1">
+        <v>44197</v>
+      </c>
+      <c r="J17" s="1">
+        <v>44347</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18">
+        <v>3</v>
+      </c>
+      <c r="D18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18">
+        <v>3</v>
+      </c>
+      <c r="G18" t="s">
+        <v>14</v>
+      </c>
+      <c r="H18">
+        <v>2021</v>
+      </c>
+      <c r="I18" s="1">
+        <v>44197</v>
+      </c>
+      <c r="J18" s="1">
+        <v>44347</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19">
+        <v>3</v>
+      </c>
+      <c r="D19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19">
+        <v>3</v>
+      </c>
+      <c r="G19" t="s">
+        <v>14</v>
+      </c>
+      <c r="H19">
+        <v>2021</v>
+      </c>
+      <c r="I19" s="1">
+        <v>44197</v>
+      </c>
+      <c r="J19" s="1">
+        <v>44347</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>49</v>
+      </c>
+      <c r="B20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20">
+        <v>3</v>
+      </c>
+      <c r="D20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" t="s">
+        <v>85</v>
+      </c>
+      <c r="F20">
+        <v>4</v>
+      </c>
+      <c r="G20" t="s">
+        <v>84</v>
+      </c>
+      <c r="H20">
+        <v>2021</v>
+      </c>
+      <c r="I20" s="1">
+        <v>44348</v>
+      </c>
+      <c r="J20" s="1">
+        <v>44561</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21">
+        <v>3</v>
+      </c>
+      <c r="D21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" t="s">
+        <v>85</v>
+      </c>
+      <c r="F21">
+        <v>4</v>
+      </c>
+      <c r="G21" t="s">
+        <v>84</v>
+      </c>
+      <c r="H21">
+        <v>2021</v>
+      </c>
+      <c r="I21" s="1">
+        <v>44348</v>
+      </c>
+      <c r="J21" s="1">
+        <v>44561</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22">
+        <v>3</v>
+      </c>
+      <c r="D22" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" t="s">
+        <v>85</v>
+      </c>
+      <c r="F22">
+        <v>4</v>
+      </c>
+      <c r="G22" t="s">
+        <v>84</v>
+      </c>
+      <c r="H22">
+        <v>2021</v>
+      </c>
+      <c r="I22" s="1">
+        <v>44348</v>
+      </c>
+      <c r="J22" s="1">
+        <v>44561</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
         <v>0</v>
       </c>
-      <c r="E5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5">
-        <v>3</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="H5">
+      <c r="B23" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23">
+        <v>3</v>
+      </c>
+      <c r="D23" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" t="s">
+        <v>85</v>
+      </c>
+      <c r="F23">
+        <v>4</v>
+      </c>
+      <c r="G23" t="s">
+        <v>84</v>
+      </c>
+      <c r="H23">
+        <v>2021</v>
+      </c>
+      <c r="I23" s="1">
+        <v>44348</v>
+      </c>
+      <c r="J23" s="1">
+        <v>44561</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>56</v>
+      </c>
+      <c r="B24" t="s">
+        <v>57</v>
+      </c>
+      <c r="C24">
+        <v>3</v>
+      </c>
+      <c r="D24" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" t="s">
+        <v>85</v>
+      </c>
+      <c r="F24">
+        <v>4</v>
+      </c>
+      <c r="G24" t="s">
+        <v>84</v>
+      </c>
+      <c r="H24">
+        <v>2021</v>
+      </c>
+      <c r="I24" s="1">
+        <v>44348</v>
+      </c>
+      <c r="J24" s="1">
+        <v>44561</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>58</v>
+      </c>
+      <c r="B25" t="s">
+        <v>59</v>
+      </c>
+      <c r="C25">
+        <v>3</v>
+      </c>
+      <c r="D25" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" t="s">
+        <v>85</v>
+      </c>
+      <c r="F25">
+        <v>4</v>
+      </c>
+      <c r="G25" t="s">
+        <v>84</v>
+      </c>
+      <c r="H25">
+        <v>2021</v>
+      </c>
+      <c r="I25" s="1">
+        <v>44348</v>
+      </c>
+      <c r="J25" s="1">
+        <v>44561</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>60</v>
+      </c>
+      <c r="B26" t="s">
+        <v>61</v>
+      </c>
+      <c r="C26">
+        <v>3</v>
+      </c>
+      <c r="D26" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26" t="s">
+        <v>85</v>
+      </c>
+      <c r="F26">
+        <v>5</v>
+      </c>
+      <c r="G26" t="s">
+        <v>84</v>
+      </c>
+      <c r="H26">
         <v>2022</v>
       </c>
-      <c r="I5" s="1">
-        <f t="shared" ref="I5:J5" si="1">I4</f>
-        <v>44666</v>
-      </c>
-      <c r="J5" s="1">
-        <f t="shared" si="1"/>
-        <v>44844</v>
+      <c r="I26" s="1">
+        <v>44562</v>
+      </c>
+      <c r="J26" s="1">
+        <v>44712</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>62</v>
+      </c>
+      <c r="B27" t="s">
+        <v>63</v>
+      </c>
+      <c r="C27">
+        <v>3</v>
+      </c>
+      <c r="D27" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" t="s">
+        <v>85</v>
+      </c>
+      <c r="F27">
+        <v>5</v>
+      </c>
+      <c r="G27" t="s">
+        <v>84</v>
+      </c>
+      <c r="H27">
+        <v>2022</v>
+      </c>
+      <c r="I27" s="1">
+        <v>44562</v>
+      </c>
+      <c r="J27" s="1">
+        <v>44712</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>64</v>
+      </c>
+      <c r="B28" t="s">
+        <v>65</v>
+      </c>
+      <c r="C28">
+        <v>3</v>
+      </c>
+      <c r="D28" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" t="s">
+        <v>85</v>
+      </c>
+      <c r="F28">
+        <v>5</v>
+      </c>
+      <c r="G28" t="s">
+        <v>84</v>
+      </c>
+      <c r="H28">
+        <v>2022</v>
+      </c>
+      <c r="I28" s="1">
+        <v>44562</v>
+      </c>
+      <c r="J28" s="1">
+        <v>44712</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>66</v>
+      </c>
+      <c r="B29" t="s">
+        <v>67</v>
+      </c>
+      <c r="C29">
+        <v>3</v>
+      </c>
+      <c r="D29" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29" t="s">
+        <v>85</v>
+      </c>
+      <c r="F29">
+        <v>5</v>
+      </c>
+      <c r="G29" t="s">
+        <v>84</v>
+      </c>
+      <c r="H29">
+        <v>2022</v>
+      </c>
+      <c r="I29" s="1">
+        <v>44562</v>
+      </c>
+      <c r="J29" s="1">
+        <v>44712</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>68</v>
+      </c>
+      <c r="B30" t="s">
+        <v>69</v>
+      </c>
+      <c r="C30">
+        <v>3</v>
+      </c>
+      <c r="D30" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30" t="s">
+        <v>85</v>
+      </c>
+      <c r="F30">
+        <v>5</v>
+      </c>
+      <c r="G30" t="s">
+        <v>84</v>
+      </c>
+      <c r="H30">
+        <v>2022</v>
+      </c>
+      <c r="I30" s="1">
+        <v>44562</v>
+      </c>
+      <c r="J30" s="1">
+        <v>44712</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>70</v>
+      </c>
+      <c r="B31" t="s">
+        <v>71</v>
+      </c>
+      <c r="C31">
+        <v>3</v>
+      </c>
+      <c r="D31" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31" t="s">
+        <v>85</v>
+      </c>
+      <c r="F31">
+        <v>5</v>
+      </c>
+      <c r="G31" t="s">
+        <v>84</v>
+      </c>
+      <c r="H31">
+        <v>2022</v>
+      </c>
+      <c r="I31" s="1">
+        <v>44562</v>
+      </c>
+      <c r="J31" s="1">
+        <v>44712</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>72</v>
+      </c>
+      <c r="B32" t="s">
+        <v>73</v>
+      </c>
+      <c r="C32">
+        <v>3</v>
+      </c>
+      <c r="D32" t="s">
+        <v>12</v>
+      </c>
+      <c r="E32" t="s">
+        <v>85</v>
+      </c>
+      <c r="F32">
+        <v>5</v>
+      </c>
+      <c r="G32" t="s">
+        <v>84</v>
+      </c>
+      <c r="H32">
+        <v>2022</v>
+      </c>
+      <c r="I32" s="1">
+        <v>44562</v>
+      </c>
+      <c r="J32" s="1">
+        <v>44712</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>74</v>
+      </c>
+      <c r="B33" t="s">
+        <v>75</v>
+      </c>
+      <c r="C33">
+        <v>3</v>
+      </c>
+      <c r="D33" t="s">
+        <v>12</v>
+      </c>
+      <c r="E33" t="s">
+        <v>85</v>
+      </c>
+      <c r="F33">
+        <v>6</v>
+      </c>
+      <c r="G33" t="s">
+        <v>84</v>
+      </c>
+      <c r="H33">
+        <v>2022</v>
+      </c>
+      <c r="I33" s="1">
+        <v>44713</v>
+      </c>
+      <c r="J33" s="1">
+        <v>44926</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>76</v>
+      </c>
+      <c r="B34" t="s">
+        <v>77</v>
+      </c>
+      <c r="C34">
+        <v>3</v>
+      </c>
+      <c r="D34" t="s">
+        <v>12</v>
+      </c>
+      <c r="E34" t="s">
+        <v>85</v>
+      </c>
+      <c r="F34">
+        <v>6</v>
+      </c>
+      <c r="G34" t="s">
+        <v>84</v>
+      </c>
+      <c r="H34">
+        <v>2022</v>
+      </c>
+      <c r="I34" s="1">
+        <v>44713</v>
+      </c>
+      <c r="J34" s="1">
+        <v>44926</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>78</v>
+      </c>
+      <c r="B35" t="s">
+        <v>79</v>
+      </c>
+      <c r="C35">
+        <v>3</v>
+      </c>
+      <c r="D35" t="s">
+        <v>12</v>
+      </c>
+      <c r="E35" t="s">
+        <v>85</v>
+      </c>
+      <c r="F35">
+        <v>6</v>
+      </c>
+      <c r="G35" t="s">
+        <v>84</v>
+      </c>
+      <c r="H35">
+        <v>2022</v>
+      </c>
+      <c r="I35" s="1">
+        <v>44713</v>
+      </c>
+      <c r="J35" s="1">
+        <v>44926</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>80</v>
+      </c>
+      <c r="B36" t="s">
+        <v>81</v>
+      </c>
+      <c r="C36">
+        <v>3</v>
+      </c>
+      <c r="D36" t="s">
+        <v>12</v>
+      </c>
+      <c r="E36" t="s">
+        <v>85</v>
+      </c>
+      <c r="F36">
+        <v>6</v>
+      </c>
+      <c r="G36" t="s">
+        <v>84</v>
+      </c>
+      <c r="H36">
+        <v>2022</v>
+      </c>
+      <c r="I36" s="1">
+        <v>44713</v>
+      </c>
+      <c r="J36" s="1">
+        <v>44926</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>82</v>
+      </c>
+      <c r="B37" t="s">
+        <v>83</v>
+      </c>
+      <c r="C37">
+        <v>3</v>
+      </c>
+      <c r="D37" t="s">
+        <v>12</v>
+      </c>
+      <c r="E37" t="s">
+        <v>85</v>
+      </c>
+      <c r="F37">
+        <v>6</v>
+      </c>
+      <c r="G37" t="s">
+        <v>84</v>
+      </c>
+      <c r="H37">
+        <v>2022</v>
+      </c>
+      <c r="I37" s="1">
+        <v>44713</v>
+      </c>
+      <c r="J37" s="1">
+        <v>44926</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>86</v>
+      </c>
+      <c r="B38" t="s">
+        <v>87</v>
+      </c>
+      <c r="C38">
+        <v>2</v>
+      </c>
+      <c r="D38" t="s">
+        <v>12</v>
+      </c>
+      <c r="E38" t="s">
+        <v>85</v>
+      </c>
+      <c r="F38">
+        <v>6</v>
+      </c>
+      <c r="G38" t="s">
+        <v>84</v>
+      </c>
+      <c r="H38">
+        <v>2022</v>
+      </c>
+      <c r="I38" s="1">
+        <v>44713</v>
+      </c>
+      <c r="J38" s="1">
+        <v>44926</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>